--- a/Data Collection/Persons/Bernhard Waldenfels/Bernhard_Waldenfels_all.xlsx
+++ b/Data Collection/Persons/Bernhard Waldenfels/Bernhard_Waldenfels_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Bernhard Waldenfels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Persons\Bernhard Waldenfels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5277B3D1-F526-4658-B10A-E99EB478A2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116ECDA-0407-45A2-B1AD-2A37E2DFF7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>19</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>24</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
